--- a/datasets/selfservice/nys/analysis_dataset.xlsx
+++ b/datasets/selfservice/nys/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="362" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="363" uniqueCount="181">
   <si>
     <t>sampleid</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>collection</t>
+  </si>
+  <si>
+    <t>consumed</t>
   </si>
   <si>
     <t>expectedsubstance</t>
@@ -600,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CK14"/>
+  <dimension ref="A1:CL14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -638,7 +641,7 @@
         <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s">
         <v>54</v>
@@ -668,34 +671,34 @@
         <v>62</v>
       </c>
       <c r="U1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="V1" t="s">
         <v>71</v>
       </c>
       <c r="W1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="X1" t="s">
         <v>80</v>
       </c>
       <c r="Y1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Z1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AA1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AB1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AC1" t="s">
         <v>83</v>
       </c>
       <c r="AD1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AE1" t="s">
         <v>89</v>
@@ -728,19 +731,19 @@
         <v>98</v>
       </c>
       <c r="AO1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AQ1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AR1" t="s">
         <v>108</v>
       </c>
       <c r="AS1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AT1" t="s">
         <v>114</v>
@@ -866,13 +869,16 @@
         <v>154</v>
       </c>
       <c r="CI1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="CJ1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CK1" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -903,17 +909,17 @@
       <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -933,79 +939,79 @@
       <c r="S2" s="2">
         <v>0</v>
       </c>
-      <c r="T2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" s="2"/>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>67</v>
+      </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" t="s">
+        <v>85</v>
+      </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
-      <c r="AN2" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN2" s="2"/>
       <c r="AO2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AP2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="1">
+        <v>67</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="1">
         <v>44840</v>
       </c>
-      <c r="AV2" s="2">
-        <v>1</v>
-      </c>
       <c r="AW2" s="2">
         <v>1</v>
       </c>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2">
+      <c r="AX2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2">
         <v>9</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="BA2" s="2">
         <v>4</v>
       </c>
-      <c r="BA2" s="2">
-        <v>1</v>
-      </c>
       <c r="BB2" s="2">
         <v>1</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
         <v>0</v>
@@ -1023,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="BI2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2" s="2">
         <v>0</v>
@@ -1062,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="BV2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX2" s="2">
         <v>0</v>
@@ -1086,28 +1092,31 @@
         <v>0</v>
       </c>
       <c r="CD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF2" s="2">
         <v>0</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="s">
         <v>30</v>
       </c>
-      <c r="CH2" t="s">
-        <v>155</v>
-      </c>
       <c r="CI2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="CJ2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="CK2" t="s">
-        <v>173</v>
+        <v>166</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3">
@@ -1138,17 +1147,17 @@
       <c r="I3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1168,77 +1177,77 @@
       <c r="S3" s="2">
         <v>0</v>
       </c>
-      <c r="T3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" s="2"/>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>73</v>
+      </c>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-      <c r="AC3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
-      <c r="AN3" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN3" s="2"/>
       <c r="AO3" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AP3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="1">
+        <v>102</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="1">
         <v>44840</v>
       </c>
-      <c r="AV3" s="2">
-        <v>1</v>
-      </c>
       <c r="AW3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2"/>
       <c r="AZ3" s="2">
         <v>6</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BB3" s="2">
         <v>1</v>
@@ -1250,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
         <v>0</v>
@@ -1259,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="BH3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="2">
         <v>1</v>
       </c>
       <c r="BJ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3" s="2">
         <v>0</v>
@@ -1301,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="BV3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX3" s="2">
         <v>0</v>
@@ -1316,37 +1325,40 @@
         <v>0</v>
       </c>
       <c r="CA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC3" s="2">
         <v>0</v>
       </c>
       <c r="CD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF3" s="2">
         <v>0</v>
       </c>
-      <c r="CG3" t="s">
+      <c r="CG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="s">
         <v>30</v>
       </c>
-      <c r="CH3" t="s">
-        <v>156</v>
-      </c>
       <c r="CI3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="CJ3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="CK3" t="s">
-        <v>174</v>
+        <v>167</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4">
@@ -1377,12 +1389,12 @@
       <c r="I4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
       <c r="L4" s="2">
         <v>0</v>
       </c>
@@ -1407,25 +1419,27 @@
       <c r="S4" s="2">
         <v>0</v>
       </c>
-      <c r="T4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
         <v>66</v>
       </c>
-      <c r="W4" s="2"/>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" t="s">
+        <v>67</v>
+      </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1435,49 +1449,47 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
-      <c r="AN4" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN4" s="2"/>
       <c r="AO4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AP4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="1">
+        <v>67</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="1">
         <v>44845</v>
       </c>
-      <c r="AV4" s="2">
-        <v>1</v>
-      </c>
       <c r="AW4" s="2">
         <v>1</v>
       </c>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2">
+      <c r="AX4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2">
         <v>7</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="BA4" s="2">
         <v>6</v>
       </c>
-      <c r="BA4" s="2">
-        <v>1</v>
-      </c>
       <c r="BB4" s="2">
         <v>1</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
         <v>0</v>
@@ -1486,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>1</v>
       </c>
       <c r="BH4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI4" s="2">
         <v>0</v>
@@ -1534,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="BV4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX4" s="2">
         <v>0</v>
@@ -1549,37 +1561,40 @@
         <v>0</v>
       </c>
       <c r="CA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC4" s="2">
         <v>0</v>
       </c>
       <c r="CD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF4" s="2">
         <v>0</v>
       </c>
-      <c r="CG4" t="s">
+      <c r="CG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="s">
         <v>30</v>
       </c>
-      <c r="CH4" t="s">
-        <v>157</v>
-      </c>
       <c r="CI4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="CJ4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="CK4" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5">
@@ -1610,17 +1625,17 @@
       <c r="I5" t="s">
         <v>43</v>
       </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1640,27 +1655,29 @@
       <c r="S5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" t="s">
-        <v>66</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" s="2"/>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" t="s">
+        <v>67</v>
+      </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1670,49 +1687,47 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
-      <c r="AN5" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN5" s="2"/>
       <c r="AO5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AP5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="1">
+        <v>67</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="1">
         <v>44840</v>
       </c>
-      <c r="AV5" s="2">
-        <v>1</v>
-      </c>
       <c r="AW5" s="2">
         <v>1</v>
       </c>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2">
+      <c r="AX5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2">
         <v>6</v>
       </c>
-      <c r="AZ5" s="2">
-        <v>1</v>
-      </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
         <v>0</v>
@@ -1727,22 +1742,22 @@
         <v>0</v>
       </c>
       <c r="BH5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="2">
         <v>1</v>
       </c>
       <c r="BJ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" s="2">
         <v>0</v>
       </c>
       <c r="BL5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN5" s="2">
         <v>0</v>
@@ -1769,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="BV5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX5" s="2">
         <v>0</v>
@@ -1784,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="CA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC5" s="2">
         <v>0</v>
@@ -1801,20 +1816,23 @@
       <c r="CF5" s="2">
         <v>0</v>
       </c>
-      <c r="CG5" t="s">
+      <c r="CG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="s">
         <v>30</v>
       </c>
-      <c r="CH5" t="s">
-        <v>158</v>
-      </c>
       <c r="CI5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="CJ5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="CK5" t="s">
-        <v>176</v>
+        <v>169</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6">
@@ -1845,17 +1863,17 @@
       <c r="I6" t="s">
         <v>41</v>
       </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1875,75 +1893,75 @@
       <c r="S6" s="2">
         <v>0</v>
       </c>
-      <c r="T6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" t="s">
-        <v>73</v>
-      </c>
-      <c r="W6" s="2"/>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>74</v>
+      </c>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" t="s">
+        <v>85</v>
+      </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" t="s">
-        <v>99</v>
-      </c>
+      <c r="AN6" s="2"/>
       <c r="AO6" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AP6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="1">
+        <v>67</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="1">
         <v>44845</v>
       </c>
-      <c r="AV6" s="2">
-        <v>1</v>
-      </c>
       <c r="AW6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="2"/>
       <c r="AZ6" s="2">
         <v>2</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1964,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="BH6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="2">
         <v>1</v>
       </c>
       <c r="BJ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK6" s="2">
         <v>0</v>
@@ -2021,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="CA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC6" s="2">
         <v>0</v>
@@ -2038,20 +2056,23 @@
       <c r="CF6" s="2">
         <v>0</v>
       </c>
-      <c r="CG6" t="s">
+      <c r="CG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="s">
         <v>30</v>
       </c>
-      <c r="CH6" t="s">
-        <v>159</v>
-      </c>
       <c r="CI6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="CJ6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="CK6" t="s">
-        <v>177</v>
+        <v>170</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7">
@@ -2082,17 +2103,17 @@
       <c r="I7" t="s">
         <v>41</v>
       </c>
-      <c r="J7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -2112,32 +2133,34 @@
       <c r="S7" s="2">
         <v>0</v>
       </c>
-      <c r="T7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" s="2"/>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2">
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2">
         <v>-1</v>
       </c>
-      <c r="AC7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2"/>
+      <c r="AD7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -2146,70 +2169,68 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
-      <c r="AN7" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN7" s="2"/>
       <c r="AO7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AP7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="1">
+        <v>67</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="1">
         <v>44886</v>
       </c>
-      <c r="AV7" s="2">
-        <v>1</v>
-      </c>
       <c r="AW7" s="2">
         <v>1</v>
       </c>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2">
+      <c r="AX7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2">
         <v>12</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="BA7" s="2">
         <v>5</v>
       </c>
-      <c r="BA7" s="2">
-        <v>1</v>
-      </c>
       <c r="BB7" s="2">
         <v>1</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
         <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
       </c>
       <c r="BH7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="2">
         <v>1</v>
       </c>
       <c r="BJ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK7" s="2">
         <v>0</v>
@@ -2245,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="BV7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX7" s="2">
         <v>0</v>
@@ -2260,37 +2281,40 @@
         <v>0</v>
       </c>
       <c r="CA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC7" s="2">
         <v>0</v>
       </c>
       <c r="CD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF7" s="2">
         <v>0</v>
       </c>
-      <c r="CG7" t="s">
-        <v>66</v>
+      <c r="CG7" s="2">
+        <v>0</v>
       </c>
       <c r="CH7" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="CI7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="CJ7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="CK7" t="s">
-        <v>178</v>
+        <v>171</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8">
@@ -2321,11 +2345,11 @@
       <c r="I8" t="s">
         <v>43</v>
       </c>
-      <c r="J8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2349,78 +2373,78 @@
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>1</v>
-      </c>
-      <c r="T8" t="s">
-        <v>67</v>
-      </c>
-      <c r="U8" s="2">
-        <v>1</v>
-      </c>
-      <c r="V8" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>68</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>76</v>
+      </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2">
+        <v>1</v>
+      </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
-      <c r="AN8" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN8" s="2"/>
       <c r="AO8" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="AP8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="1">
+        <v>103</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="1">
         <v>44897</v>
       </c>
-      <c r="AV8" s="2">
-        <v>1</v>
-      </c>
       <c r="AW8" s="2">
         <v>1</v>
       </c>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2">
+      <c r="AX8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2">
         <v>3</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="BA8" s="2">
         <v>2</v>
       </c>
-      <c r="BA8" s="2">
-        <v>0</v>
-      </c>
       <c r="BB8" s="2">
         <v>0</v>
       </c>
@@ -2467,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="BQ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8" s="2">
         <v>1</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2497,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="CA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC8" s="2">
         <v>0</v>
@@ -2514,20 +2538,23 @@
       <c r="CF8" s="2">
         <v>0</v>
       </c>
-      <c r="CG8" t="s">
-        <v>66</v>
+      <c r="CG8" s="2">
+        <v>0</v>
       </c>
       <c r="CH8" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="CI8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CJ8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="CK8" t="s">
-        <v>179</v>
+        <v>172</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -2558,11 +2585,11 @@
       <c r="I9" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2571,16 +2598,16 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -2588,29 +2615,31 @@
       <c r="S9" s="2">
         <v>0</v>
       </c>
-      <c r="T9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
-        <v>76</v>
-      </c>
-      <c r="W9" s="2"/>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>77</v>
+      </c>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>67</v>
+      </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -2620,43 +2649,41 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
-      <c r="AN9" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN9" s="2"/>
       <c r="AO9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AP9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="1">
+        <v>67</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="1">
         <v>44894</v>
       </c>
-      <c r="AV9" s="2">
-        <v>1</v>
-      </c>
       <c r="AW9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2"/>
       <c r="AZ9" s="2">
         <v>1</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2671,13 +2698,13 @@
         <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
         <v>1</v>
       </c>
       <c r="BH9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI9" s="2">
         <v>0</v>
@@ -2751,20 +2778,23 @@
       <c r="CF9" s="2">
         <v>0</v>
       </c>
-      <c r="CG9" t="s">
-        <v>66</v>
+      <c r="CG9" s="2">
+        <v>0</v>
       </c>
       <c r="CH9" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="CI9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CJ9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="CK9" t="s">
-        <v>179</v>
+        <v>172</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10">
@@ -2795,14 +2825,14 @@
       <c r="I10" t="s">
         <v>42</v>
       </c>
-      <c r="J10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -2825,27 +2855,29 @@
       <c r="S10" s="2">
         <v>0</v>
       </c>
-      <c r="T10" t="s">
-        <v>68</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
-      <c r="V10" t="s">
-        <v>77</v>
-      </c>
-      <c r="W10" s="2"/>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>69</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>78</v>
+      </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="2"/>
-      <c r="AC10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2"/>
+      <c r="AD10" t="s">
+        <v>67</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2855,47 +2887,45 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
-      <c r="AN10" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN10" s="2"/>
       <c r="AO10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AP10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>44</v>
       </c>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="1">
+      <c r="AR10" s="2"/>
+      <c r="AS10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="1">
         <v>44896</v>
       </c>
-      <c r="AV10" s="2">
-        <v>1</v>
-      </c>
       <c r="AW10" s="2">
         <v>1</v>
       </c>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2">
+      <c r="AX10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2">
         <v>5</v>
       </c>
-      <c r="AZ10" s="2">
+      <c r="BA10" s="2">
         <v>3</v>
       </c>
-      <c r="BA10" s="2">
-        <v>0</v>
-      </c>
       <c r="BB10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
         <v>0</v>
@@ -2904,22 +2934,22 @@
         <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
         <v>1</v>
       </c>
       <c r="BH10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI10" s="2">
         <v>0</v>
       </c>
       <c r="BJ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="2">
         <v>0</v>
@@ -2952,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="BV10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX10" s="2">
         <v>0</v>
@@ -2967,37 +2997,40 @@
         <v>0</v>
       </c>
       <c r="CA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC10" s="2">
         <v>0</v>
       </c>
       <c r="CD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF10" s="2">
         <v>0</v>
       </c>
-      <c r="CG10" t="s">
-        <v>66</v>
+      <c r="CG10" s="2">
+        <v>0</v>
       </c>
       <c r="CH10" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="CI10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CJ10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="CK10" t="s">
-        <v>179</v>
+        <v>172</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="11">
@@ -3028,17 +3061,17 @@
       <c r="I11" t="s">
         <v>42</v>
       </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -3058,83 +3091,83 @@
       <c r="S11" s="2">
         <v>0</v>
       </c>
-      <c r="T11" t="s">
-        <v>64</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" t="s">
-        <v>78</v>
-      </c>
-      <c r="W11" s="2"/>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>79</v>
+      </c>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2">
+        <v>1</v>
+      </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
-      <c r="AN11" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN11" s="2"/>
       <c r="AO11" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="AP11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="1">
+        <v>104</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="1">
         <v>44886</v>
       </c>
-      <c r="AV11" s="2">
-        <v>1</v>
-      </c>
       <c r="AW11" s="2">
         <v>1</v>
       </c>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2">
+      <c r="AX11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2">
         <v>7</v>
       </c>
-      <c r="AZ11" s="2">
+      <c r="BA11" s="2">
         <v>6</v>
       </c>
-      <c r="BA11" s="2">
-        <v>1</v>
-      </c>
       <c r="BB11" s="2">
         <v>1</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
         <v>0</v>
@@ -3152,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="BI11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK11" s="2">
         <v>0</v>
@@ -3191,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="BV11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX11" s="2">
         <v>0</v>
@@ -3209,34 +3242,37 @@
         <v>0</v>
       </c>
       <c r="CB11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF11" s="2">
         <v>0</v>
       </c>
-      <c r="CG11" t="s">
-        <v>66</v>
+      <c r="CG11" s="2">
+        <v>0</v>
       </c>
       <c r="CH11" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="CI11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="CJ11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="CK11" t="s">
-        <v>173</v>
+        <v>166</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12">
@@ -3267,29 +3303,29 @@
       <c r="I12" t="s">
         <v>43</v>
       </c>
-      <c r="J12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>53</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -3297,30 +3333,32 @@
       <c r="S12" s="2">
         <v>0</v>
       </c>
-      <c r="T12" t="s">
-        <v>68</v>
-      </c>
-      <c r="U12" s="2">
-        <v>1</v>
-      </c>
-      <c r="V12" t="s">
-        <v>72</v>
-      </c>
-      <c r="W12" s="2"/>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>69</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>73</v>
+      </c>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3329,49 +3367,47 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
-      <c r="AN12" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN12" s="2"/>
       <c r="AO12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AP12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS12" s="2"/>
-      <c r="AT12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="1">
+        <v>67</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="1">
         <v>44886</v>
       </c>
-      <c r="AV12" s="2">
-        <v>1</v>
-      </c>
       <c r="AW12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="2"/>
-      <c r="AY12" s="2">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="2"/>
       <c r="AZ12" s="2">
         <v>3</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB12" s="2">
         <v>1</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
         <v>0</v>
@@ -3392,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="BJ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL12" s="2">
         <v>0</v>
@@ -3428,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="BV12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX12" s="2">
         <v>0</v>
@@ -3443,37 +3479,40 @@
         <v>0</v>
       </c>
       <c r="CA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC12" s="2">
         <v>0</v>
       </c>
       <c r="CD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF12" s="2">
         <v>0</v>
       </c>
-      <c r="CG12" t="s">
-        <v>66</v>
+      <c r="CG12" s="2">
+        <v>0</v>
       </c>
       <c r="CH12" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="CI12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="CJ12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="CK12" t="s">
-        <v>174</v>
+        <v>167</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="13">
@@ -3504,17 +3543,17 @@
       <c r="I13" t="s">
         <v>42</v>
       </c>
-      <c r="J13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -3534,30 +3573,32 @@
       <c r="S13" s="2">
         <v>0</v>
       </c>
-      <c r="T13" t="s">
-        <v>68</v>
-      </c>
-      <c r="U13" s="2">
-        <v>1</v>
-      </c>
-      <c r="V13" t="s">
-        <v>72</v>
-      </c>
-      <c r="W13" s="2"/>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>69</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>73</v>
+      </c>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2">
+        <v>1</v>
+      </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3566,42 +3607,40 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
-      <c r="AN13" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN13" s="2"/>
       <c r="AO13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AP13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="1">
+      <c r="AR13" s="2"/>
+      <c r="AS13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="1">
         <v>44886</v>
       </c>
-      <c r="AV13" s="2">
-        <v>1</v>
-      </c>
       <c r="AW13" s="2">
         <v>1</v>
       </c>
-      <c r="AX13" s="2"/>
-      <c r="AY13" s="2">
+      <c r="AX13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2">
         <v>11</v>
       </c>
-      <c r="AZ13" s="2">
+      <c r="BA13" s="2">
         <v>5</v>
       </c>
-      <c r="BA13" s="2">
-        <v>1</v>
-      </c>
       <c r="BB13" s="2">
         <v>1</v>
       </c>
@@ -3612,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -3624,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="BI13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK13" s="2">
         <v>0</v>
@@ -3663,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="BV13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX13" s="2">
         <v>0</v>
@@ -3678,37 +3717,40 @@
         <v>0</v>
       </c>
       <c r="CA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB13" s="2">
         <v>1</v>
       </c>
       <c r="CC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE13" s="2">
         <v>1</v>
       </c>
       <c r="CF13" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="CG13" s="2">
+        <v>0</v>
       </c>
       <c r="CH13" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="CI13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="CJ13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="CK13" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="14">
@@ -3739,17 +3781,17 @@
       <c r="I14" t="s">
         <v>44</v>
       </c>
-      <c r="J14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>48</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -3769,30 +3811,32 @@
       <c r="S14" s="2">
         <v>0</v>
       </c>
-      <c r="T14" t="s">
-        <v>69</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
-        <v>78</v>
-      </c>
-      <c r="W14" s="2"/>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>70</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>79</v>
+      </c>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -3801,47 +3845,45 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
-      <c r="AN14" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN14" s="2"/>
       <c r="AO14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AP14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>44</v>
       </c>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="1">
+      <c r="AR14" s="2"/>
+      <c r="AS14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="1">
         <v>44886</v>
       </c>
-      <c r="AV14" s="2">
-        <v>1</v>
-      </c>
       <c r="AW14" s="2">
         <v>1</v>
       </c>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2">
+      <c r="AX14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2">
         <v>5</v>
       </c>
-      <c r="AZ14" s="2">
+      <c r="BA14" s="2">
         <v>3</v>
       </c>
-      <c r="BA14" s="2">
-        <v>1</v>
-      </c>
       <c r="BB14" s="2">
         <v>1</v>
       </c>
       <c r="BC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
         <v>0</v>
@@ -3859,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="BI14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK14" s="2">
         <v>0</v>
@@ -3898,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="BV14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX14" s="2">
         <v>0</v>
@@ -3922,28 +3964,31 @@
         <v>0</v>
       </c>
       <c r="CD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF14" s="2">
         <v>0</v>
       </c>
-      <c r="CG14" t="s">
-        <v>66</v>
+      <c r="CG14" s="2">
+        <v>0</v>
       </c>
       <c r="CH14" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="CI14" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="CJ14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="CK14" t="s">
-        <v>173</v>
+        <v>166</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/nys/analysis_dataset.xlsx
+++ b/datasets/selfservice/nys/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="363" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="384" uniqueCount="186">
   <si>
     <t>sampleid</t>
   </si>
@@ -57,6 +57,9 @@
     <t>300887</t>
   </si>
   <si>
+    <t>800533</t>
+  </si>
+  <si>
     <t>program</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
     <t>Saratoga</t>
   </si>
   <si>
+    <t>Chemung County</t>
+  </si>
+  <si>
     <t>county</t>
   </si>
   <si>
@@ -504,6 +510,9 @@
     <t>NY | TOMPKINS</t>
   </si>
   <si>
+    <t>NY | CHEMUNG</t>
+  </si>
+  <si>
     <t>statefips</t>
   </si>
   <si>
@@ -534,6 +543,9 @@
     <t>109</t>
   </si>
   <si>
+    <t>015</t>
+  </si>
+  <si>
     <t>countyfips</t>
   </si>
   <si>
@@ -556,6 +568,9 @@
   </si>
   <si>
     <t>36109</t>
+  </si>
+  <si>
+    <t>36015</t>
   </si>
 </sst>
 </file>
@@ -603,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL14"/>
+  <dimension ref="A1:CL15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -614,271 +629,271 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB1" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>78</v>
-      </c>
       <c r="AC1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AG1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AH1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AI1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AJ1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AK1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AL1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AM1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AN1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AO1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AP1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AQ1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AR1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AS1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AT1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AU1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AV1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AW1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AX1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AY1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AZ1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BA1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BB1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BC1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BD1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BE1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BF1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="BG1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="BH1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BI1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="BJ1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BK1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BL1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BM1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="BN1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BO1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="BP1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BQ1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BR1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BS1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BT1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="BU1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BV1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="BW1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="BX1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BY1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="BZ1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="CA1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="CB1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="CC1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="CD1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="CE1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="CF1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="CG1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="CH1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="CI1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="CJ1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="CK1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="CL1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
@@ -886,34 +901,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1">
         <v>44834</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
@@ -943,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="V2" s="2">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
@@ -958,7 +973,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
@@ -973,19 +988,19 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AQ2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
       </c>
       <c r="AS2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
@@ -1104,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="CH2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CI2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="CJ2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CK2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="CL2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3">
@@ -1124,34 +1139,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1">
         <v>44834</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
@@ -1181,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="V3" s="2">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1198,7 +1213,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE3" s="2">
         <v>1</v>
@@ -1215,19 +1230,19 @@
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AQ3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AR3" s="2">
         <v>1</v>
       </c>
       <c r="AS3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
@@ -1346,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CI3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="CJ3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CK3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="CL3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
@@ -1366,34 +1381,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1">
         <v>44833</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1423,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V4" s="2">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -1438,7 +1453,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1451,19 +1466,19 @@
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
       <c r="AO4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AQ4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AR4" s="2">
         <v>0</v>
       </c>
       <c r="AS4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
@@ -1582,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="CH4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CI4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="CJ4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CK4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="CL4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -1602,34 +1617,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1">
         <v>44833</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -1659,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="V5" s="2">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
@@ -1676,7 +1691,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1689,19 +1704,19 @@
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AQ5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AR5" s="2">
         <v>0</v>
       </c>
       <c r="AS5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
@@ -1820,19 +1835,19 @@
         <v>0</v>
       </c>
       <c r="CH5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CI5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="CJ5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CK5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="CL5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
@@ -1840,34 +1855,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1">
         <v>44834</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -1897,13 +1912,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V6" s="2">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
@@ -1914,7 +1929,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -1929,19 +1944,19 @@
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AP6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AQ6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AR6" s="2">
         <v>0</v>
       </c>
       <c r="AS6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
@@ -2060,19 +2075,19 @@
         <v>0</v>
       </c>
       <c r="CH6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CI6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="CJ6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CK6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="CL6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
@@ -2080,34 +2095,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1">
         <v>44881</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -2137,13 +2152,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V7" s="2">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -2156,7 +2171,7 @@
         <v>-1</v>
       </c>
       <c r="AD7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE7" s="2">
         <v>0</v>
@@ -2171,19 +2186,19 @@
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AQ7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
       </c>
       <c r="AS7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
@@ -2302,19 +2317,19 @@
         <v>0</v>
       </c>
       <c r="CH7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CI7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="CJ7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CK7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="CL7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
@@ -2322,34 +2337,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1">
         <v>44887</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2379,13 +2394,13 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="V8" s="2">
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -2394,7 +2409,7 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AE8" s="2">
         <v>1</v>
@@ -2411,19 +2426,19 @@
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AQ8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AR8" s="2">
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
@@ -2542,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="CH8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CI8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="CJ8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CK8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="CL8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
@@ -2562,34 +2577,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1">
         <v>44888</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2619,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -2638,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="AD9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -2651,19 +2666,19 @@
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AQ9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AR9" s="2">
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
@@ -2782,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="CH9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CI9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="CJ9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CK9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="CL9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
@@ -2802,34 +2817,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1">
         <v>44888</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -2859,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V10" s="2">
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -2876,7 +2891,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -2889,17 +2904,17 @@
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AQ10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AR10" s="2"/>
       <c r="AS10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
@@ -3018,19 +3033,19 @@
         <v>0</v>
       </c>
       <c r="CH10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CI10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="CJ10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CK10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="CL10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
@@ -3038,34 +3053,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1">
         <v>44881</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -3095,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="V11" s="2">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -3112,7 +3127,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE11" s="2">
         <v>1</v>
@@ -3129,19 +3144,19 @@
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AQ11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
       </c>
       <c r="AS11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
@@ -3260,19 +3275,19 @@
         <v>0</v>
       </c>
       <c r="CH11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CI11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="CJ11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CK11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="CL11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12">
@@ -3280,34 +3295,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1">
         <v>44881</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -3337,13 +3352,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V12" s="2">
         <v>1</v>
       </c>
       <c r="W12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -3354,7 +3369,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE12" s="2">
         <v>0</v>
@@ -3369,19 +3384,19 @@
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AQ12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AR12" s="2">
         <v>0</v>
       </c>
       <c r="AS12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2">
@@ -3500,19 +3515,19 @@
         <v>0</v>
       </c>
       <c r="CH12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CI12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="CJ12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CK12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="CL12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
@@ -3520,34 +3535,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1">
         <v>44881</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -3577,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V13" s="2">
         <v>1</v>
       </c>
       <c r="W13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -3594,7 +3609,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE13" s="2">
         <v>0</v>
@@ -3609,17 +3624,17 @@
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
       <c r="AO13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AQ13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AR13" s="2"/>
       <c r="AS13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
@@ -3738,19 +3753,19 @@
         <v>0</v>
       </c>
       <c r="CH13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CI13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="CJ13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CK13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="CL13" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -3758,34 +3773,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1">
         <v>44881</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -3815,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V14" s="2">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -3832,7 +3847,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE14" s="2">
         <v>0</v>
@@ -3847,17 +3862,17 @@
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AQ14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AR14" s="2"/>
       <c r="AS14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2">
@@ -3976,19 +3991,255 @@
         <v>0</v>
       </c>
       <c r="CH14" t="s">
+        <v>69</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>167</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45050</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
         <v>67</v>
       </c>
-      <c r="CI14" t="s">
-        <v>156</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>164</v>
-      </c>
-      <c r="CK14" t="s">
-        <v>166</v>
-      </c>
-      <c r="CL14" t="s">
-        <v>174</v>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR15" s="2"/>
+      <c r="AS15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>45072</v>
+      </c>
+      <c r="AW15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="2">
+        <v>1</v>
+      </c>
+      <c r="CC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE15" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>69</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>167</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/nys/analysis_dataset.xlsx
+++ b/datasets/selfservice/nys/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="384" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="405" uniqueCount="195">
   <si>
     <t>sampleid</t>
   </si>
@@ -57,6 +57,9 @@
     <t>300887</t>
   </si>
   <si>
+    <t>800496</t>
+  </si>
+  <si>
     <t>800533</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>Southern Tier AIDS Program</t>
   </si>
   <si>
+    <t>ACR Health</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
@@ -99,6 +105,9 @@
     <t>Saratoga</t>
   </si>
   <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
     <t>Chemung County</t>
   </si>
   <si>
@@ -126,6 +135,9 @@
     <t>Tompkins County</t>
   </si>
   <si>
+    <t>Onondaga County</t>
+  </si>
+  <si>
     <t>state</t>
   </si>
   <si>
@@ -183,6 +195,9 @@
     <t>heroin; fentanyl; methamphetamine</t>
   </si>
   <si>
+    <t>molly</t>
+  </si>
+  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>nice; stronger</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -510,6 +528,9 @@
     <t>NY | TOMPKINS</t>
   </si>
   <si>
+    <t>NY | ONONDAGA</t>
+  </si>
+  <si>
     <t>NY | CHEMUNG</t>
   </si>
   <si>
@@ -543,6 +564,9 @@
     <t>109</t>
   </si>
   <si>
+    <t>067</t>
+  </si>
+  <si>
     <t>015</t>
   </si>
   <si>
@@ -568,6 +592,9 @@
   </si>
   <si>
     <t>36109</t>
+  </si>
+  <si>
+    <t>36067</t>
   </si>
   <si>
     <t>36015</t>
@@ -618,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL15"/>
+  <dimension ref="A1:CL16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -629,271 +656,271 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="S1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="T1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="U1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="V1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="W1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="X1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AA1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AD1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AE1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AF1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AG1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AH1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AI1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AJ1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AK1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AL1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AN1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AO1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AP1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AQ1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AR1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AS1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AT1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AU1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AV1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AW1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AX1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AY1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AZ1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="BA1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="BB1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="BC1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="BD1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="BE1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="BF1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="BG1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="BH1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="BI1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="BJ1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="BK1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="BL1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="BM1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="BN1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="BO1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="BP1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="BQ1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="BR1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="BS1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="BT1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="BU1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="BV1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="BW1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="BX1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="BY1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="BZ1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="CA1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="CB1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="CC1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="CD1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="CE1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="CF1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="CG1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="CH1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="CI1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="CJ1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="CK1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="CL1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">
@@ -901,34 +928,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1">
         <v>44834</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
@@ -958,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="V2" s="2">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
@@ -973,7 +1000,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
@@ -988,19 +1015,19 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AQ2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
       </c>
       <c r="AS2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
@@ -1119,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="CH2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CI2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="CJ2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CK2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="CL2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3">
@@ -1139,34 +1166,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1">
         <v>44834</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
@@ -1196,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="V3" s="2">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1213,7 +1240,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AE3" s="2">
         <v>1</v>
@@ -1230,19 +1257,19 @@
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AQ3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AR3" s="2">
         <v>1</v>
       </c>
       <c r="AS3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
@@ -1361,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CI3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="CJ3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CK3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="CL3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
@@ -1381,34 +1408,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1">
         <v>44833</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1438,13 +1465,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="V4" s="2">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -1453,7 +1480,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1466,19 +1493,19 @@
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
       <c r="AO4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AQ4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AR4" s="2">
         <v>0</v>
       </c>
       <c r="AS4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
@@ -1597,19 +1624,19 @@
         <v>0</v>
       </c>
       <c r="CH4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CI4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="CJ4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CK4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="CL4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
@@ -1617,34 +1644,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1">
         <v>44833</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -1674,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="V5" s="2">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
@@ -1691,7 +1718,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1704,19 +1731,19 @@
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AQ5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AR5" s="2">
         <v>0</v>
       </c>
       <c r="AS5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
@@ -1835,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="CH5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CI5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="CJ5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CK5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="CL5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -1855,34 +1882,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1">
         <v>44834</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -1912,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="V6" s="2">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
@@ -1929,7 +1956,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -1944,19 +1971,19 @@
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AP6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AQ6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AR6" s="2">
         <v>0</v>
       </c>
       <c r="AS6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
@@ -2075,19 +2102,19 @@
         <v>0</v>
       </c>
       <c r="CH6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CI6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="CJ6" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CK6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CL6" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
@@ -2095,34 +2122,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1">
         <v>44881</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -2152,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="V7" s="2">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -2171,7 +2198,7 @@
         <v>-1</v>
       </c>
       <c r="AD7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AE7" s="2">
         <v>0</v>
@@ -2186,19 +2213,19 @@
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AQ7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
       </c>
       <c r="AS7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
@@ -2317,19 +2344,19 @@
         <v>0</v>
       </c>
       <c r="CH7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="CI7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="CJ7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CK7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="CL7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8">
@@ -2337,34 +2364,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1">
         <v>44887</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2394,13 +2421,13 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V8" s="2">
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -2409,7 +2436,7 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE8" s="2">
         <v>1</v>
@@ -2426,19 +2453,19 @@
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AQ8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AR8" s="2">
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
@@ -2557,19 +2584,19 @@
         <v>0</v>
       </c>
       <c r="CH8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="CI8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="CJ8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CK8" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="CL8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9">
@@ -2577,34 +2604,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1">
         <v>44888</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2634,13 +2661,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -2653,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="AD9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -2666,19 +2693,19 @@
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AQ9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AR9" s="2">
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
@@ -2797,19 +2824,19 @@
         <v>0</v>
       </c>
       <c r="CH9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="CI9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="CJ9" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CK9" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="CL9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10">
@@ -2817,34 +2844,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1">
         <v>44888</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -2874,13 +2901,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V10" s="2">
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -2891,7 +2918,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -2904,17 +2931,17 @@
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AQ10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AR10" s="2"/>
       <c r="AS10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
@@ -3033,19 +3060,19 @@
         <v>0</v>
       </c>
       <c r="CH10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="CI10" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="CJ10" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CK10" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="CL10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11">
@@ -3053,34 +3080,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1">
         <v>44881</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -3110,13 +3137,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="V11" s="2">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -3127,7 +3154,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AE11" s="2">
         <v>1</v>
@@ -3144,19 +3171,19 @@
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AQ11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
       </c>
       <c r="AS11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
@@ -3275,19 +3302,19 @@
         <v>0</v>
       </c>
       <c r="CH11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="CI11" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="CJ11" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CK11" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="CL11" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12">
@@ -3295,34 +3322,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1">
         <v>44881</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -3352,13 +3379,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V12" s="2">
         <v>1</v>
       </c>
       <c r="W12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -3369,7 +3396,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AE12" s="2">
         <v>0</v>
@@ -3384,19 +3411,19 @@
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AQ12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AR12" s="2">
         <v>0</v>
       </c>
       <c r="AS12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2">
@@ -3515,19 +3542,19 @@
         <v>0</v>
       </c>
       <c r="CH12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="CI12" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="CJ12" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CK12" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="CL12" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
@@ -3535,34 +3562,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1">
         <v>44881</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -3592,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V13" s="2">
         <v>1</v>
       </c>
       <c r="W13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -3609,7 +3636,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AE13" s="2">
         <v>0</v>
@@ -3624,17 +3651,17 @@
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
       <c r="AO13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AQ13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AR13" s="2"/>
       <c r="AS13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
@@ -3753,19 +3780,19 @@
         <v>0</v>
       </c>
       <c r="CH13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="CI13" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="CJ13" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CK13" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="CL13" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14">
@@ -3773,34 +3800,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G14" s="1">
         <v>44881</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -3830,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="V14" s="2">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -3847,7 +3874,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AE14" s="2">
         <v>0</v>
@@ -3862,17 +3889,17 @@
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AQ14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AR14" s="2"/>
       <c r="AS14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2">
@@ -3991,19 +4018,19 @@
         <v>0</v>
       </c>
       <c r="CH14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="CI14" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="CJ14" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CK14" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="CL14" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15">
@@ -4011,34 +4038,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1">
-        <v>45050</v>
+        <v>45058</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -4065,181 +4092,419 @@
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V15" s="2">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>1</v>
+      </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
+      <c r="AJ15" s="2">
+        <v>1</v>
+      </c>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AP15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AQ15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AR15" s="2"/>
       <c r="AS15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2">
         <v>1</v>
       </c>
       <c r="AV15" s="1">
-        <v>45072</v>
+        <v>45077</v>
       </c>
       <c r="AW15" s="2">
         <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG15" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>171</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>183</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45050</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>72</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>80</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR16" s="2"/>
+      <c r="AS16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>45072</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2">
         <v>5</v>
       </c>
-      <c r="BA15" s="2">
+      <c r="BA16" s="2">
         <v>3</v>
       </c>
-      <c r="BB15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BX15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ15" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA15" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB15" s="2">
-        <v>1</v>
-      </c>
-      <c r="CC15" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE15" s="2">
-        <v>1</v>
-      </c>
-      <c r="CF15" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG15" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>69</v>
-      </c>
-      <c r="CI15" t="s">
-        <v>165</v>
-      </c>
-      <c r="CJ15" t="s">
-        <v>167</v>
-      </c>
-      <c r="CK15" t="s">
-        <v>176</v>
-      </c>
-      <c r="CL15" t="s">
-        <v>185</v>
+      <c r="BB16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB16" s="2">
+        <v>1</v>
+      </c>
+      <c r="CC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE16" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>74</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>172</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/nys/analysis_dataset.xlsx
+++ b/datasets/selfservice/nys/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="405" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="426" uniqueCount="200">
   <si>
     <t>sampleid</t>
   </si>
@@ -63,6 +63,9 @@
     <t>800533</t>
   </si>
   <si>
+    <t>800950</t>
+  </si>
+  <si>
     <t>program</t>
   </si>
   <si>
@@ -198,6 +201,9 @@
     <t>molly</t>
   </si>
   <si>
+    <t>heroin; fentanyl; xylazine</t>
+  </si>
+  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -249,6 +255,9 @@
     <t>tan</t>
   </si>
   <si>
+    <t>red</t>
+  </si>
+  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -306,6 +315,9 @@
     <t>nice</t>
   </si>
   <si>
+    <t>weird; sedating</t>
+  </si>
+  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -352,6 +364,9 @@
   </si>
   <si>
     <t>fall out quickly - ears ringing after reversal</t>
+  </si>
+  <si>
+    <t>wounds</t>
   </si>
   <si>
     <t>overdose</t>
@@ -645,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL16"/>
+  <dimension ref="A1:CL17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -656,271 +671,271 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="T1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="W1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="X1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Y1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB1" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>85</v>
-      </c>
       <c r="AC1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AD1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AE1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AF1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AG1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AH1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AI1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AJ1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AK1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AL1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AM1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AN1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AP1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AQ1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AR1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AS1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AT1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AU1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AV1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AW1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AX1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AY1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AZ1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="BA1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BB1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="BC1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="BD1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BE1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="BF1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="BG1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="BH1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="BI1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="BJ1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="BK1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="BL1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="BM1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="BN1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BO1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="BP1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BQ1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="BR1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BT1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="BU1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BV1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="BW1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="BX1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="BY1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BZ1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="CA1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="CB1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="CC1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="CD1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="CE1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="CF1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="CG1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="CH1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="CI1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="CJ1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="CK1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="CL1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2">
@@ -928,34 +943,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1">
         <v>44834</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
@@ -985,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V2" s="2">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
@@ -1000,7 +1015,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
@@ -1015,19 +1030,19 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AQ2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AR2" s="2">
         <v>1</v>
       </c>
       <c r="AS2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2">
@@ -1146,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="CH2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CI2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="CJ2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="CL2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
@@ -1166,34 +1181,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1">
         <v>44834</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
@@ -1223,13 +1238,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V3" s="2">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1240,7 +1255,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AE3" s="2">
         <v>1</v>
@@ -1257,19 +1272,19 @@
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AQ3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AR3" s="2">
         <v>1</v>
       </c>
       <c r="AS3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2">
@@ -1388,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CI3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="CJ3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="CL3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
@@ -1408,34 +1423,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1">
         <v>44833</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1465,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V4" s="2">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -1480,7 +1495,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1493,19 +1508,19 @@
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
       <c r="AO4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AQ4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AR4" s="2">
         <v>0</v>
       </c>
       <c r="AS4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2">
@@ -1624,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="CH4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CI4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CJ4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="CL4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5">
@@ -1644,34 +1659,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1">
         <v>44833</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -1701,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V5" s="2">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
@@ -1718,7 +1733,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1731,19 +1746,19 @@
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AQ5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AR5" s="2">
         <v>0</v>
       </c>
       <c r="AS5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2">
@@ -1862,19 +1877,19 @@
         <v>0</v>
       </c>
       <c r="CH5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CI5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="CJ5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="CL5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
@@ -1882,34 +1897,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1">
         <v>44834</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -1939,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V6" s="2">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
@@ -1956,7 +1971,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -1971,19 +1986,19 @@
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AP6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AQ6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AR6" s="2">
         <v>0</v>
       </c>
       <c r="AS6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2">
@@ -2102,19 +2117,19 @@
         <v>0</v>
       </c>
       <c r="CH6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CI6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="CJ6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="CL6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
@@ -2122,34 +2137,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1">
         <v>44881</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -2179,13 +2194,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V7" s="2">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -2198,7 +2213,7 @@
         <v>-1</v>
       </c>
       <c r="AD7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE7" s="2">
         <v>0</v>
@@ -2213,19 +2228,19 @@
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AQ7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AR7" s="2">
         <v>1</v>
       </c>
       <c r="AS7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2">
@@ -2344,19 +2359,19 @@
         <v>0</v>
       </c>
       <c r="CH7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CI7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="CJ7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="CL7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
@@ -2364,34 +2379,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1">
         <v>44887</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2421,13 +2436,13 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V8" s="2">
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -2436,7 +2451,7 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AE8" s="2">
         <v>1</v>
@@ -2453,19 +2468,19 @@
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AQ8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AR8" s="2">
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2">
@@ -2584,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="CH8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CI8" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="CJ8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CL8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9">
@@ -2604,34 +2619,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1">
         <v>44888</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2661,13 +2676,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -2680,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="AD9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -2693,19 +2708,19 @@
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AQ9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AR9" s="2">
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2">
@@ -2824,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="CH9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CI9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="CJ9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CL9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
@@ -2844,34 +2859,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
         <v>44888</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -2901,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V10" s="2">
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -2918,7 +2933,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -2931,17 +2946,17 @@
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AQ10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR10" s="2"/>
       <c r="AS10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2">
@@ -3060,19 +3075,19 @@
         <v>0</v>
       </c>
       <c r="CH10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CI10" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="CJ10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="CL10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11">
@@ -3080,34 +3095,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1">
         <v>44881</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -3137,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V11" s="2">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -3154,7 +3169,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AE11" s="2">
         <v>1</v>
@@ -3171,19 +3186,19 @@
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AQ11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AR11" s="2">
         <v>1</v>
       </c>
       <c r="AS11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2">
@@ -3302,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="CH11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CI11" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="CJ11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="CL11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12">
@@ -3322,34 +3337,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1">
         <v>44881</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -3379,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V12" s="2">
         <v>1</v>
       </c>
       <c r="W12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -3396,7 +3411,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE12" s="2">
         <v>0</v>
@@ -3411,19 +3426,19 @@
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AQ12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AR12" s="2">
         <v>0</v>
       </c>
       <c r="AS12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2">
@@ -3542,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="CH12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CI12" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="CJ12" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK12" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="CL12" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13">
@@ -3562,34 +3577,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1">
         <v>44881</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -3619,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V13" s="2">
         <v>1</v>
       </c>
       <c r="W13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -3636,7 +3651,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE13" s="2">
         <v>0</v>
@@ -3651,17 +3666,17 @@
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
       <c r="AO13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AQ13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR13" s="2"/>
       <c r="AS13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2">
@@ -3780,19 +3795,19 @@
         <v>0</v>
       </c>
       <c r="CH13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CI13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CJ13" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK13" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="CL13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14">
@@ -3800,34 +3815,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1">
         <v>44881</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -3857,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V14" s="2">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -3874,7 +3889,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE14" s="2">
         <v>0</v>
@@ -3889,17 +3904,17 @@
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AQ14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR14" s="2"/>
       <c r="AS14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2">
@@ -4018,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="CH14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CI14" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="CJ14" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK14" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="CL14" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
@@ -4038,34 +4053,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="1">
         <v>45058</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -4095,13 +4110,13 @@
         <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V15" s="2">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -4112,7 +4127,7 @@
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -4127,17 +4142,17 @@
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AQ15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR15" s="2"/>
       <c r="AS15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2">
@@ -4256,19 +4271,19 @@
         <v>1</v>
       </c>
       <c r="CH15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CI15" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="CJ15" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK15" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="CL15" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16">
@@ -4276,34 +4291,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1">
         <v>45050</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -4333,13 +4348,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V16" s="2">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -4350,7 +4365,7 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -4363,17 +4378,17 @@
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AQ16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR16" s="2"/>
       <c r="AS16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
@@ -4492,19 +4507,259 @@
         <v>0</v>
       </c>
       <c r="CH16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CI16" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="CJ16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="CK16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="CL16" t="s">
-        <v>194</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45058</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>80</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>84</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="2"/>
+      <c r="AO17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR17" s="2"/>
+      <c r="AS17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>45078</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE17" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>76</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>176</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>179</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>188</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/nys/analysis_dataset.xlsx
+++ b/datasets/selfservice/nys/analysis_dataset.xlsx
@@ -81204,7 +81204,7 @@
         <v>13</v>
       </c>
       <c r="AY382" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AZ382" s="2">
         <v>1</v>
